--- a/Assignment1/Book1.xlsx
+++ b/Assignment1/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\locng\Documents\GitHub\CS4080\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EE7D13-71E0-4D9B-B86F-9171FED1C474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B134FAE8-FED3-489D-9C7F-187828126D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5907AEA-9576-4A29-8C37-A95E496BAB73}"/>
+    <workbookView minimized="1" xWindow="2280" yWindow="120" windowWidth="21600" windowHeight="11295" xr2:uid="{D5907AEA-9576-4A29-8C37-A95E496BAB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Time</t>
   </si>
@@ -55,15 +55,72 @@
   <si>
     <t>C++ version 3</t>
   </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Matrix Size (nxn)</t>
+  </si>
+  <si>
+    <t>10x10</t>
+  </si>
+  <si>
+    <t>20x20</t>
+  </si>
+  <si>
+    <t>30x30</t>
+  </si>
+  <si>
+    <t>40x40</t>
+  </si>
+  <si>
+    <t>50x50</t>
+  </si>
+  <si>
+    <t>60x60</t>
+  </si>
+  <si>
+    <t>70x70</t>
+  </si>
+  <si>
+    <t>80x80</t>
+  </si>
+  <si>
+    <t>90x90</t>
+  </si>
+  <si>
+    <t>100x100</t>
+  </si>
+  <si>
+    <t>C Stack Dynamic</t>
+  </si>
+  <si>
+    <t>C Pointer to Pointer</t>
+  </si>
+  <si>
+    <t>C++ Classes with Pointer to Pointer</t>
+  </si>
+  <si>
+    <t>Java Classes</t>
+  </si>
+  <si>
+    <t>Execution Time (ns)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,12 +142,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,6 +184,1544 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Matrix</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Multiplication Execution Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>v1_C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29850</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>258490</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>519190</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>825310</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1620220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2124120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3124950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4185989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7A6-4CD0-9C75-97D87689532D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>v2_C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$13:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39570</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134030</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>325470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>606640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1032270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1865950</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2492500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3673519</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4795690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7A6-4CD0-9C75-97D87689532D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>C++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$13:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>273440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>556111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1038360</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1930560</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3412349</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5944710</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6671419</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8578209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B7A6-4CD0-9C75-97D87689532D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Java</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$13:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>155570</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>993300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2419000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4177519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6663629</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6046159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8333260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9400500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10305378</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11109520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B7A6-4CD0-9C75-97D87689532D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1869060319"/>
+        <c:axId val="2019420111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1869060319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Square</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Matrix Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019420111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2019420111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869060319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B34A4F-B94D-700B-090A-7DFD98A4D000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,18 +2021,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CA67DA-9DAD-4833-9073-235849ECBD47}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A23" sqref="A23:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -436,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -456,7 +2077,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -476,7 +2097,7 @@
         <v>92000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -496,7 +2117,7 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -516,7 +2137,7 @@
         <v>690000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -536,7 +2157,7 @@
         <v>1615000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
@@ -556,7 +2177,7 @@
         <v>2224000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>70</v>
       </c>
@@ -576,7 +2197,7 @@
         <v>3576000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80</v>
       </c>
@@ -596,7 +2217,7 @@
         <v>5403000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>90</v>
       </c>
@@ -616,7 +2237,7 @@
         <v>7233000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -636,7 +2257,7 @@
         <v>6682000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -646,8 +2267,382 @@
       <c r="G12" t="s">
         <v>5</v>
       </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>6100</v>
+      </c>
+      <c r="E13">
+        <v>6980</v>
+      </c>
+      <c r="H13">
+        <v>12760</v>
+      </c>
+      <c r="J13">
+        <v>155570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>29850</v>
+      </c>
+      <c r="E14">
+        <v>39570</v>
+      </c>
+      <c r="H14">
+        <v>93860</v>
+      </c>
+      <c r="J14">
+        <v>993300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>121530</v>
+      </c>
+      <c r="E15">
+        <v>134030</v>
+      </c>
+      <c r="H15">
+        <v>273440</v>
+      </c>
+      <c r="J15">
+        <v>2419000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>258490</v>
+      </c>
+      <c r="E16">
+        <v>325470</v>
+      </c>
+      <c r="H16">
+        <v>556111</v>
+      </c>
+      <c r="J16">
+        <v>4177519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>519190</v>
+      </c>
+      <c r="E17">
+        <v>606640</v>
+      </c>
+      <c r="H17">
+        <v>1038360</v>
+      </c>
+      <c r="J17">
+        <v>6663629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>825310</v>
+      </c>
+      <c r="E18">
+        <v>1032270</v>
+      </c>
+      <c r="H18">
+        <v>1930560</v>
+      </c>
+      <c r="J18">
+        <v>6046159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <v>1620220</v>
+      </c>
+      <c r="E19">
+        <v>1865950</v>
+      </c>
+      <c r="H19">
+        <v>3412349</v>
+      </c>
+      <c r="J19">
+        <v>8333260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <v>2124120</v>
+      </c>
+      <c r="E20">
+        <v>2492500</v>
+      </c>
+      <c r="H20">
+        <v>5944710</v>
+      </c>
+      <c r="J20">
+        <v>9400500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>3124950</v>
+      </c>
+      <c r="E21">
+        <v>3673519</v>
+      </c>
+      <c r="H21">
+        <v>6671419</v>
+      </c>
+      <c r="J21">
+        <v>10305378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>4185989</v>
+      </c>
+      <c r="E22">
+        <v>4795690</v>
+      </c>
+      <c r="H22">
+        <v>8578209</v>
+      </c>
+      <c r="J22">
+        <v>11109520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6100</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6980</v>
+      </c>
+      <c r="D25" s="1">
+        <v>12760</v>
+      </c>
+      <c r="E25" s="1">
+        <v>155570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>29850</v>
+      </c>
+      <c r="C26" s="1">
+        <v>39570</v>
+      </c>
+      <c r="D26" s="1">
+        <v>93860</v>
+      </c>
+      <c r="E26" s="1">
+        <v>993300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>121530</v>
+      </c>
+      <c r="C27" s="1">
+        <v>134030</v>
+      </c>
+      <c r="D27" s="1">
+        <v>273440</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2419000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1">
+        <v>258490</v>
+      </c>
+      <c r="C28" s="1">
+        <v>325470</v>
+      </c>
+      <c r="D28" s="1">
+        <v>556111</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4177519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1">
+        <v>519190</v>
+      </c>
+      <c r="C29" s="1">
+        <v>606640</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1038360</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6663629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1">
+        <v>825310</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1032270</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1930560</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6046159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1620220</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1865950</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3412349</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8333260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2124120</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2492500</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5944710</v>
+      </c>
+      <c r="E32" s="1">
+        <v>9400500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3124950</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3673519</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6671419</v>
+      </c>
+      <c r="E33" s="1">
+        <v>10305378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4185989</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4795690</v>
+      </c>
+      <c r="D34" s="1">
+        <v>8578209</v>
+      </c>
+      <c r="E34" s="1">
+        <v>11109520</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B23:E23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>